--- a/inst/extdata/Template_info.xlsx
+++ b/inst/extdata/Template_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="456">
   <si>
     <t>dataset_name</t>
   </si>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>author_year
-red font = required</t>
   </si>
   <si>
     <t>site_name</t>
@@ -1155,14 +1151,254 @@
     <t>f_ferrihydrite</t>
   </si>
   <si>
-    <t>This lorem ipsum generator is made for all the webdesigners, designers, webmasters and others who need lorem ipsum. Generator is made the way that everyone can use it, but especially for projects which need html markup. You can decide which html tags you want and our generator will generate just as you specified.</t>
+    <t xml:space="preserve">A unique name for a site that corresponds to a georeferenced point. </t>
+  </si>
+  <si>
+    <t>see metadata tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude/Longitude datum against which Latitude and Longitude are reported. If left blank, WGS84 will be assumed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various notes on and descriptions of the site other than C flux, climate, photo or vegetation. May include local names for physiographic features, which may or may not appear on USGS Topographic Quadrangles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The elevation at the site as determined by topo map, GPS, altimeter, etc. Contributed value is assumed accurate within several meters regardless of method used. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The angle of the ground surface through the site and in the direction that overland water would flow. Make observations facing downslope to avoid errors associated with some brands of clinometers. If the site has no slope leave blank. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cardinal direction that the slope faces at a site. Use this field if only if you do not provide the azimuth of the Site Aspect in compass degrees. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerical observation of aspect at the site. The compass bearing (corrected for declination) that a slope faces, looking downslope. If the site has no slope leave blank. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The geologic or organic precursors to the soil at the site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data contributor's calculated soil organic carbon stock value for the site, cluster, profile or layer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The arithmetic average of the total annual (liquid) precipitation , preferably taken over the standard "normal" period, 1961-1990. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The arithmetic average of the daily maximum and minimum temperatures for a calendar year, preferably taken over the standard "normal" period, 1961. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nation of origin of the data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State or territory. At output, may also include province for any contry that does not describe political subdivision as "states". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide references or links here if additional site-level vegetation data are available (e.g. species composition, basal area, aboveground biomass). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure or estimate the depth from the ground surface to the stabilized contact with free- standing water in an open bore-hole or well at the time of sampling. </t>
+  </si>
+  <si>
+    <t>AGD84, ED50, ETRS89, GRS80, NAD83, OSGB36, WGS84</t>
+  </si>
+  <si>
+    <t>coastal mediterranean, dry winter, wet summer, highland climate, humid continental hot summer, wet all year, humid continental mild summer, dry winter, humid continental mild summer, wet all year, humid subtropical, ice cap, interior mediterranean, marine cool winter, marine mild wInter, mid-latitude dry arid desert, mid-latitude dry semiarid steppe, subarctic with cold winter, dry wInter, subarctic with cold winter, wet all year, subarctic with cool summer, dry winter, subarctic with cool summer, wet all year, subtropical dry arid desert, subtropical dry semiarid steppe, tropical monsoonal, tropical wet, tropical wet and dry, tundra</t>
+  </si>
+  <si>
+    <t>N, S, E, W, NE, NW, SE, SW</t>
+  </si>
+  <si>
+    <t>convergent, divergent, planar</t>
+  </si>
+  <si>
+    <t>boreal forest/taiga, desert or xeric shrubland, flooded grassland or savanna, mangrove, mediterranean forest, woodland, or scrub, montane grassland or shrubland, temperate broadleaf or mixed forest, temperate coniferous forest, temperate grassland, savanna and shrubland, tropical or subtropical coniferous forest, tropical or subtropical grassland, savanna, or shrubland, tropical or subtropical moist broadleaf forest, tundra</t>
+  </si>
+  <si>
+    <t>bare, cultivated, forest, rangeland/grassland, shrubland, urban, wetland</t>
+  </si>
+  <si>
+    <t>excessively, somewhat excessively, well, moderately well, somewhat poorly, poorly, very poorly</t>
+  </si>
+  <si>
+    <t>igneous intrusive, igneous extrusive, igneous pyroclastic, metamorphic, sedimentary-clastics, organic, evaporites, interbedded</t>
+  </si>
+  <si>
+    <t>mafic, felsic, intermediate</t>
+  </si>
+  <si>
+    <t>summit, shoulder, backslope, footslope, toeslope, interfluve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand , loamy sand, sandy loam, loam, silt , silty loam, sandy clay loam, clay loam, silty clay loam, sandy clay, silty clay, clay </t>
+  </si>
+  <si>
+    <t>chloroform fumigation extraction, chloroform fumigation incubation, substrate induced respiration, total PLFA, other</t>
+  </si>
+  <si>
+    <t>SPT_Density, SPT_Density, HF, HF, Aggregate_Size, Aggregate_Size, Particle_Size, Incubation, Incubation</t>
+  </si>
+  <si>
+    <t>sonicated, soluble, insoluble, wet sieve, dry sieve, HMP, respired, not respired</t>
+  </si>
+  <si>
+    <t>see site tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique name for a single profile. This can be the same as the site name if there is only one profile at the site. For NRCS data it is the same as “Pedon ID”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique name for a single sampled layer. This can be a name that denotes depth, sequence, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The top (upper) depth of the layer. The surface of the non- green (i.e. non-living) surface layer is “0”. The top of the O- horizon should be 0. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bottom (lower) depth of the layer. If it is uncertain that the bottom of the designated horizon was reached, enter the depth to the bottom of the sampled layer. Note that this is the same as "hzn_bot" in the NRCS database. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow conventions of the USDA-NRCS-NSSC Field Book for Describing and Sampling Soils (Staff 2002; pp. 2-2 through 2-4). Note that datasets originally using another convention will be modified for this column. If a different convention was used it can be entered in Horizon Designation Other. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The depth to which profiles were sampled to quantify the mean site, cluster, or profile calculated soil organic carbon stocks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The standard deviation of the site, cluster, profile, or layer-level calculated soil organic carbon stock. (For layer soil organic carbon stocks, this may be based on analytical or sampling replicates of %C or bulk density measurements). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data contributor's calculated soil organic carbon stock value for the profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The depth to the frozen surface of the profile. For Alaska sites, this applies only if sampled after August 15 and should be left blank if sampled before. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The observed depth to the top of the bedrock layer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The taxonomic classification of the soil profile following NRCS convention </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The NRCS soil series of the profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dimensional position of the site on the Landform on which it is located. See USDA- NRCS-NSSC Field Book for Describing and Sampling Soils (Staff 2002; pp. 3-38 through 3-41). This information supplements Landscape and Landform to describe the geographic setting of the site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color of moist soil based on the Munsell soil color chart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptive information indicating evidence of burning within the layer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grams of oven-dried soil per cubic centimeter, with soil particles greater than 2 mm and roots greater that 1 cm diameter removed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grams of oven-dried soil per cubic centimeter, with soil particles greater than 2 mm and roots greater that 1 cm diameter included. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please reference or describe the methods used to determine bulk density. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:2 soil-CaCl2 is the pH of a sample measured in 0.01M CaCl2 at a 1:2 soil:solution ratio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:1 distilled water and soil paste. If pH was done by a different method, then enter it into one of the other soil pH fields. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH measurements other than 1:1 soil and distilled water paste or in CaCl2. Please document the method in the associated pH Method. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorganic carbon concentration as measured or estimated by the contributor. Please document the method in the associated Processed Site Organic Carbon Content Method. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent by weight of soil particles greater than 0.05 mm in the sample remaining after removal of particles greater than 2 mm and roots greater than 1 cm diameter. See Gee, G.W. &amp; Bauder, J.W. 1986. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent by weight of soil particles in the size range from 0.002 to 0.050 mm in the sample remaining after removal of particles greater than 2 mm and roots greater than 1 cm diameter. See Gee, G.W. &amp; Bauder, J.W. 1986. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent by weight of soil particles less than 0.002 mm in the sample remaining after removal of particles greater than 2 mm and roots greater than 1 cm diameter. See Gee, G.W. &amp; Bauder, J.W. 1986. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cation Exchange Capacity. Document the extractant solution in the metadata worksheet, Lab Analysis Method. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil texture classification. If no information is provided, this will be automatically generated from %sand, %silt, %clay data (coarse = ≥50% sand; fine = &lt;50% sand). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent by weight of nitrogen (organic and inorganic) in an oven-dried sample (the laboratory analytical concentration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass ratio of total carbon to total nitrogen, as calculated from the total carbon and total nitrogen concentrations of the bulk layer, fraction, or other sample type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent by weight of carbon in a dried soil sample after acidification with HCl, OR organic carbon as estimated by Walkley-Black Modified Acid-Dichromate (e.g. ‘Organic Carbon’ in the NRCS database). Please document the method in the associated Carbon Analysis Methods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent by weight of carbon in the dried, milled soil sample. This measurement will typically correspond to analytical results from an elemental analyzer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of the methods used to calculate (including any gap-filling) site, cluster, profile or layer soil organic carbon stocks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent by weight of the organic content of the &lt;2mm fraction is the organic material lost after ignition. It is reported on a &lt;2 mm base. Please document the method in the associated Carbon Analysis Method. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per mille signature of δ15N relative to air (international standard). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per mille signature of δ13C relative to Pee Dee Belemnite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratory code for radiocarbon laboratory. Complete list of past and present laboratory codes can found published in Radiocarbon in November 2011  (http://www.radiocarbon.org/Info/labcodes.html). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year in which radiocarbon analysis was performed on the sample. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer sample identifier as designated by the radiocarbon laboratory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per mille signature of Δ14C relative to NBS Oxalic Acid standard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error estimate for the fraction (eg. standard deviation of analytical reps). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deviation of the bulk sample or fraction from modern. Modern is defined as 95% of the radiocarbon concentration (in AD 1950) of NBS Oxalic Acid standard, 13C-corrected. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error estimate for an individual layer (eg. standard deviation of analytical reps). </t>
+  </si>
+  <si>
+    <t>see profile tab</t>
+  </si>
+  <si>
+    <t>see layer tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique name for a single fraction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The scheme used to isolate the fraction, e.g., density, size, aggregate, chemical. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value of the chemical or physical property that defines the fraction as unique from the others in its scheme, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The units of measurement of the property that defines a fraction as unique, e.g. for density fractions, "g cm-3". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent by weight of nitrogen (organic and inorganic) in an oven- dried sample (the laboratory analytical concentration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratory code for radiocarbon laboratory. Complete list of past and present laboratory codes can found published in Radiocarbon in November 2011 (http://www.radiocarbon.org/Info/labcodes.html). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1198,6 +1434,11 @@
       <color rgb="FF666666"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1216,23 +1457,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1565,7 +1835,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1725,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1737,7 +2007,7 @@
     <col min="2" max="2" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1753,8 +2023,17 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1762,252 +2041,328 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>72</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>96</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>99</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
-        <v>101</v>
+      <c r="D25" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2018,15 +2373,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C16385"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2042,8 +2397,17 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2051,149 +2415,191 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>109</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>118</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>122</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>124</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>125</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>126</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>127</v>
       </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>129</v>
       </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>130</v>
       </c>
-      <c r="B16" t="s">
-        <v>131</v>
-      </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -2208,15 +2614,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2232,8 +2638,17 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2241,875 +2656,984 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>134</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>135</v>
       </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>136</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>138</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>140</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>141</v>
       </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>142</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>144</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>147</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>149</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>150</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>152</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>153</v>
       </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>154</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>156</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>158</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>160</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>162</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>163</v>
       </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>164</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>165</v>
       </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>166</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>167</v>
       </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>168</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>169</v>
       </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>170</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>171</v>
       </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>172</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>174</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>175</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>177</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>179</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>180</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>182</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>183</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>185</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>186</v>
       </c>
-      <c r="C29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>187</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>188</v>
       </c>
-      <c r="C30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>189</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>190</v>
       </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>191</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>192</v>
       </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>194</v>
       </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>195</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>196</v>
       </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>197</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>198</v>
       </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>199</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>200</v>
       </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>201</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>202</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>204</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>205</v>
       </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>206</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>207</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>209</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>210</v>
       </c>
-      <c r="C40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>211</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>212</v>
       </c>
-      <c r="C41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>213</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>216</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>218</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>219</v>
       </c>
-      <c r="C44" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>220</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>221</v>
       </c>
-      <c r="C45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>222</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>224</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>226</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>227</v>
       </c>
-      <c r="C48" t="s">
-        <v>228</v>
+      <c r="E48" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" t="s">
         <v>229</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>230</v>
-      </c>
-      <c r="C49" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" t="s">
         <v>232</v>
       </c>
-      <c r="B50" t="s">
-        <v>233</v>
-      </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" t="s">
         <v>234</v>
-      </c>
-      <c r="B51" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" t="s">
         <v>236</v>
-      </c>
-      <c r="B52" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
         <v>238</v>
-      </c>
-      <c r="B53" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" t="s">
         <v>240</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>241</v>
-      </c>
-      <c r="C54" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" t="s">
         <v>243</v>
       </c>
-      <c r="B55" t="s">
-        <v>244</v>
-      </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
         <v>245</v>
       </c>
-      <c r="B56" t="s">
-        <v>246</v>
-      </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" t="s">
         <v>247</v>
       </c>
-      <c r="B57" t="s">
-        <v>248</v>
-      </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
         <v>249</v>
-      </c>
-      <c r="B58" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" t="s">
         <v>251</v>
       </c>
-      <c r="B59" t="s">
-        <v>252</v>
-      </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" t="s">
         <v>253</v>
       </c>
-      <c r="B60" t="s">
-        <v>254</v>
-      </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" t="s">
         <v>255</v>
       </c>
-      <c r="B61" t="s">
-        <v>256</v>
-      </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
         <v>257</v>
       </c>
-      <c r="B62" t="s">
-        <v>258</v>
-      </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" t="s">
         <v>259</v>
-      </c>
-      <c r="B63" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
         <v>261</v>
       </c>
-      <c r="B64" t="s">
-        <v>262</v>
-      </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" t="s">
         <v>263</v>
       </c>
-      <c r="B65" t="s">
-        <v>264</v>
-      </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s">
         <v>265</v>
       </c>
-      <c r="B66" t="s">
-        <v>266</v>
-      </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" t="s">
         <v>267</v>
       </c>
-      <c r="B67" t="s">
-        <v>268</v>
-      </c>
       <c r="C67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" t="s">
         <v>269</v>
       </c>
-      <c r="B68" t="s">
-        <v>270</v>
-      </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" t="s">
-        <v>272</v>
-      </c>
       <c r="C69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" t="s">
         <v>273</v>
       </c>
-      <c r="B70" t="s">
-        <v>274</v>
-      </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" t="s">
         <v>275</v>
       </c>
-      <c r="B71" t="s">
-        <v>276</v>
-      </c>
       <c r="C71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72" t="s">
         <v>277</v>
       </c>
-      <c r="B72" t="s">
-        <v>278</v>
-      </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73" t="s">
         <v>279</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>280</v>
-      </c>
-      <c r="C73" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" t="s">
         <v>282</v>
       </c>
-      <c r="B74" t="s">
-        <v>283</v>
-      </c>
       <c r="C74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" t="s">
         <v>284</v>
       </c>
-      <c r="B75" t="s">
-        <v>285</v>
-      </c>
       <c r="C75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" t="s">
         <v>286</v>
       </c>
-      <c r="B76" t="s">
-        <v>287</v>
-      </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" t="s">
         <v>288</v>
       </c>
-      <c r="B77" t="s">
-        <v>289</v>
-      </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>289</v>
+      </c>
+      <c r="B78" t="s">
         <v>290</v>
       </c>
-      <c r="B78" t="s">
-        <v>291</v>
-      </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B79" t="s">
         <v>292</v>
       </c>
-      <c r="B79" t="s">
-        <v>293</v>
-      </c>
       <c r="C79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" t="s">
         <v>294</v>
       </c>
-      <c r="B80" t="s">
-        <v>295</v>
-      </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" t="s">
         <v>296</v>
       </c>
-      <c r="B81" t="s">
-        <v>297</v>
-      </c>
       <c r="C81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" t="s">
         <v>298</v>
       </c>
-      <c r="B82" t="s">
-        <v>299</v>
-      </c>
       <c r="C82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>299</v>
+      </c>
+      <c r="B83" t="s">
         <v>300</v>
       </c>
-      <c r="B83" t="s">
-        <v>301</v>
-      </c>
       <c r="C83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" t="s">
         <v>302</v>
       </c>
-      <c r="B84" t="s">
-        <v>303</v>
-      </c>
       <c r="C84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" t="s">
         <v>304</v>
       </c>
-      <c r="B85" t="s">
-        <v>305</v>
-      </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" t="s">
         <v>306</v>
       </c>
-      <c r="B86" t="s">
-        <v>307</v>
-      </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3120,15 +3644,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3144,8 +3671,17 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3153,449 +3689,515 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:8" ht="17">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" t="s">
         <v>308</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>310</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>311</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>313</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>314</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>316</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>317</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>319</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>321</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>323</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>324</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>326</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>327</v>
       </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>328</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>330</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>331</v>
       </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>332</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>334</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>335</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>336</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>337</v>
       </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>338</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>339</v>
       </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>340</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>341</v>
       </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>342</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>343</v>
       </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>344</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>346</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>347</v>
       </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>348</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>349</v>
       </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>350</v>
       </c>
-      <c r="B25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>351</v>
       </c>
-      <c r="B26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>352</v>
       </c>
-      <c r="B27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>353</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>354</v>
       </c>
-      <c r="C28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>355</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>356</v>
       </c>
-      <c r="C29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>357</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>359</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>361</v>
-      </c>
       <c r="B32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" t="s">
         <v>280</v>
-      </c>
-      <c r="C32" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" t="s">
         <v>364</v>
       </c>
-      <c r="B35" t="s">
-        <v>365</v>
-      </c>
       <c r="C35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/inst/extdata/Template_info.xlsx
+++ b/inst/extdata/Template_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="480">
   <si>
     <t>dataset_name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Additional Contact Name</t>
   </si>
   <si>
-    <t>Corresponding author of paper</t>
-  </si>
-  <si>
     <t>contact_email</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Author(s), Year, Article Title, Journal Title, Volume, Page Numbers</t>
   </si>
   <si>
-    <t>author_year (all lower case)</t>
-  </si>
-  <si>
     <t>Column Name</t>
   </si>
   <si>
@@ -121,21 +115,6 @@
     <t>Controlled Vocab / Values</t>
   </si>
   <si>
-    <t>Corresponding author of paper email</t>
-  </si>
-  <si>
-    <t>Corresponding author of paper ORCID ID</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>site_name</t>
   </si>
   <si>
@@ -172,18 +151,6 @@
     <t>Site Notes</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>state_province</t>
-  </si>
-  <si>
-    <t>State or Province</t>
-  </si>
-  <si>
     <t>elevation</t>
   </si>
   <si>
@@ -193,33 +160,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>Mean Annual Precipitation</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>mat</t>
-  </si>
-  <si>
-    <t>Mean Annual Temperature</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>climate_cat</t>
-  </si>
-  <si>
-    <t>Köppen Climate Categories</t>
-  </si>
-  <si>
-    <t>(climate_cat)</t>
-  </si>
-  <si>
     <t>aspect_deg</t>
   </si>
   <si>
@@ -292,15 +232,6 @@
     <t>(parent_chem)</t>
   </si>
   <si>
-    <t>ecoregion</t>
-  </si>
-  <si>
-    <t>WWF Ecoregion &amp; Habitat Types</t>
-  </si>
-  <si>
-    <t>(ecoregion)</t>
-  </si>
-  <si>
     <t>veg_note</t>
   </si>
   <si>
@@ -502,18 +433,6 @@
     <t>Soil pH 1:1</t>
   </si>
   <si>
-    <t>ph_other</t>
-  </si>
-  <si>
-    <t>Soil pH Other</t>
-  </si>
-  <si>
-    <t>caco3</t>
-  </si>
-  <si>
-    <t>Calcium Carbonate</t>
-  </si>
-  <si>
     <t>sand_tot_psa</t>
   </si>
   <si>
@@ -610,15 +529,6 @@
     <t>c_tot</t>
   </si>
   <si>
-    <t>Bulk Layer Total Carbon</t>
-  </si>
-  <si>
-    <t>oc</t>
-  </si>
-  <si>
-    <t>Bulk Layer Organic Carbon</t>
-  </si>
-  <si>
     <t>n_tot</t>
   </si>
   <si>
@@ -646,9 +556,6 @@
     <t>Bulk Layer δ15N</t>
   </si>
   <si>
-    <t>‰</t>
-  </si>
-  <si>
     <t>13c</t>
   </si>
   <si>
@@ -1027,9 +934,6 @@
     <t>f_c_perc</t>
   </si>
   <si>
-    <t>Fraction Proportion of Sample Carbon</t>
-  </si>
-  <si>
     <t>f_mass_perc</t>
   </si>
   <si>
@@ -1040,9 +944,6 @@
   </si>
   <si>
     <t>Fraction Total Carbon</t>
-  </si>
-  <si>
-    <t>f_oc</t>
   </si>
   <si>
     <t>Fraction Organic Carbon</t>
@@ -1157,9 +1058,6 @@
     <t>see metadata tab</t>
   </si>
   <si>
-    <t xml:space="preserve">Latitude/Longitude datum against which Latitude and Longitude are reported. If left blank, WGS84 will be assumed. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Various notes on and descriptions of the site other than C flux, climate, photo or vegetation. May include local names for physiographic features, which may or may not appear on USGS Topographic Quadrangles. </t>
   </si>
   <si>
@@ -1181,18 +1079,6 @@
     <t xml:space="preserve">The data contributor's calculated soil organic carbon stock value for the site, cluster, profile or layer. </t>
   </si>
   <si>
-    <t xml:space="preserve">The arithmetic average of the total annual (liquid) precipitation , preferably taken over the standard "normal" period, 1961-1990. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The arithmetic average of the daily maximum and minimum temperatures for a calendar year, preferably taken over the standard "normal" period, 1961. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nation of origin of the data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">State or territory. At output, may also include province for any contry that does not describe political subdivision as "states". </t>
-  </si>
-  <si>
     <t xml:space="preserve">Provide references or links here if additional site-level vegetation data are available (e.g. species composition, basal area, aboveground biomass). </t>
   </si>
   <si>
@@ -1202,18 +1088,12 @@
     <t>AGD84, ED50, ETRS89, GRS80, NAD83, OSGB36, WGS84</t>
   </si>
   <si>
-    <t>coastal mediterranean, dry winter, wet summer, highland climate, humid continental hot summer, wet all year, humid continental mild summer, dry winter, humid continental mild summer, wet all year, humid subtropical, ice cap, interior mediterranean, marine cool winter, marine mild wInter, mid-latitude dry arid desert, mid-latitude dry semiarid steppe, subarctic with cold winter, dry wInter, subarctic with cold winter, wet all year, subarctic with cool summer, dry winter, subarctic with cool summer, wet all year, subtropical dry arid desert, subtropical dry semiarid steppe, tropical monsoonal, tropical wet, tropical wet and dry, tundra</t>
-  </si>
-  <si>
     <t>N, S, E, W, NE, NW, SE, SW</t>
   </si>
   <si>
     <t>convergent, divergent, planar</t>
   </si>
   <si>
-    <t>boreal forest/taiga, desert or xeric shrubland, flooded grassland or savanna, mangrove, mediterranean forest, woodland, or scrub, montane grassland or shrubland, temperate broadleaf or mixed forest, temperate coniferous forest, temperate grassland, savanna and shrubland, tropical or subtropical coniferous forest, tropical or subtropical grassland, savanna, or shrubland, tropical or subtropical moist broadleaf forest, tundra</t>
-  </si>
-  <si>
     <t>bare, cultivated, forest, rangeland/grassland, shrubland, urban, wetland</t>
   </si>
   <si>
@@ -1229,9 +1109,6 @@
     <t>summit, shoulder, backslope, footslope, toeslope, interfluve</t>
   </si>
   <si>
-    <t xml:space="preserve">sand , loamy sand, sandy loam, loam, silt , silty loam, sandy clay loam, clay loam, silty clay loam, sandy clay, silty clay, clay </t>
-  </si>
-  <si>
     <t>chloroform fumigation extraction, chloroform fumigation incubation, substrate induced respiration, total PLFA, other</t>
   </si>
   <si>
@@ -1247,15 +1124,6 @@
     <t xml:space="preserve">A unique name for a single profile. This can be the same as the site name if there is only one profile at the site. For NRCS data it is the same as “Pedon ID”. </t>
   </si>
   <si>
-    <t xml:space="preserve">A unique name for a single sampled layer. This can be a name that denotes depth, sequence, etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The top (upper) depth of the layer. The surface of the non- green (i.e. non-living) surface layer is “0”. The top of the O- horizon should be 0. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bottom (lower) depth of the layer. If it is uncertain that the bottom of the designated horizon was reached, enter the depth to the bottom of the sampled layer. Note that this is the same as "hzn_bot" in the NRCS database. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Follow conventions of the USDA-NRCS-NSSC Field Book for Describing and Sampling Soils (Staff 2002; pp. 2-2 through 2-4). Note that datasets originally using another convention will be modified for this column. If a different convention was used it can be entered in Horizon Designation Other. </t>
   </si>
   <si>
@@ -1304,12 +1172,6 @@
     <t xml:space="preserve">1:1 distilled water and soil paste. If pH was done by a different method, then enter it into one of the other soil pH fields. </t>
   </si>
   <si>
-    <t xml:space="preserve">pH measurements other than 1:1 soil and distilled water paste or in CaCl2. Please document the method in the associated pH Method. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inorganic carbon concentration as measured or estimated by the contributor. Please document the method in the associated Processed Site Organic Carbon Content Method. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Percent by weight of soil particles greater than 0.05 mm in the sample remaining after removal of particles greater than 2 mm and roots greater than 1 cm diameter. See Gee, G.W. &amp; Bauder, J.W. 1986. </t>
   </si>
   <si>
@@ -1322,9 +1184,6 @@
     <t xml:space="preserve">Cation Exchange Capacity. Document the extractant solution in the metadata worksheet, Lab Analysis Method. </t>
   </si>
   <si>
-    <t xml:space="preserve">Soil texture classification. If no information is provided, this will be automatically generated from %sand, %silt, %clay data (coarse = ≥50% sand; fine = &lt;50% sand). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Percent by weight of nitrogen (organic and inorganic) in an oven-dried sample (the laboratory analytical concentration). </t>
   </si>
   <si>
@@ -1370,15 +1229,6 @@
     <t xml:space="preserve">Error estimate for an individual layer (eg. standard deviation of analytical reps). </t>
   </si>
   <si>
-    <t>see profile tab</t>
-  </si>
-  <si>
-    <t>see layer tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unique name for a single fraction. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The scheme used to isolate the fraction, e.g., density, size, aggregate, chemical. </t>
   </si>
   <si>
@@ -1392,13 +1242,235 @@
   </si>
   <si>
     <t xml:space="preserve">Laboratory code for radiocarbon laboratory. Complete list of past and present laboratory codes can found published in Radiocarbon in November 2011 (http://www.radiocarbon.org/Info/labcodes.html). </t>
+  </si>
+  <si>
+    <t>must match other levels</t>
+  </si>
+  <si>
+    <t>Corresponding author of dataset</t>
+  </si>
+  <si>
+    <t>Corresponding author email</t>
+  </si>
+  <si>
+    <t>Corresponding author ORCID #</t>
+  </si>
+  <si>
+    <t>metadata_note</t>
+  </si>
+  <si>
+    <t>Notes about dataset</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>numeric, min=-180, max=180</t>
+  </si>
+  <si>
+    <t>Latitude/Longitude datum against which Latitude and Longitude are reported. Default = WGS84</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>numeric, min=-413, max=8900</t>
+  </si>
+  <si>
+    <t>numeric, min=0, max=90</t>
+  </si>
+  <si>
+    <t>numeric, min=0, max=100</t>
+  </si>
+  <si>
+    <t>numeric, min = , max =</t>
+  </si>
+  <si>
+    <t>parent_material_notes</t>
+  </si>
+  <si>
+    <t>Notes on parent material or chemical</t>
+  </si>
+  <si>
+    <t>rock type, etc.</t>
+  </si>
+  <si>
+    <t>species 1; species 2;…</t>
+  </si>
+  <si>
+    <t>formatted: YYYY-MM-DD or MM/DD/YYYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric, min= , max= </t>
+  </si>
+  <si>
+    <t>numeric, min=0, max =</t>
+  </si>
+  <si>
+    <t>numeric, min=0, max=</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>ph_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH measurements method other than 1:1 soil and distilled water paste or in CaCl2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH measurements  other than 1:1 soil and distilled water paste or in CaCl2. </t>
+  </si>
+  <si>
+    <t>l_observation_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil pH </t>
+  </si>
+  <si>
+    <t>Method Used to Measure pH</t>
+  </si>
+  <si>
+    <t>(ph_method)</t>
+  </si>
+  <si>
+    <t>Ca_exch</t>
+  </si>
+  <si>
+    <t>Exchangeable Calcium</t>
+  </si>
+  <si>
+    <t>Na_exch</t>
+  </si>
+  <si>
+    <t>Exchangeable Sodium</t>
+  </si>
+  <si>
+    <t>Mg_exch</t>
+  </si>
+  <si>
+    <t>Exchangeable Magnesium</t>
+  </si>
+  <si>
+    <t>K_exch</t>
+  </si>
+  <si>
+    <t>Exchangeable Potassium</t>
+  </si>
+  <si>
+    <t>c_inorg</t>
+  </si>
+  <si>
+    <t>Inorganic Carbon</t>
+  </si>
+  <si>
+    <t>c_org</t>
+  </si>
+  <si>
+    <t>Organic Carbon</t>
+  </si>
+  <si>
+    <t>Total Carbon</t>
+  </si>
+  <si>
+    <t>calcite_dolomite</t>
+  </si>
+  <si>
+    <t>Calcite + Dolomite Abundance</t>
+  </si>
+  <si>
+    <t>zeolite</t>
+  </si>
+  <si>
+    <t>zeolite Abundance</t>
+  </si>
+  <si>
+    <t>valid email address format XX@XX.XX</t>
+  </si>
+  <si>
+    <t>numeric, min= , max=</t>
+  </si>
+  <si>
+    <t>numeric, min=0, max=100 ; or "+/++/+++"</t>
+  </si>
+  <si>
+    <t>f_agent</t>
+  </si>
+  <si>
+    <t>Chemical or Physical Agent for Fractionation</t>
+  </si>
+  <si>
+    <t>f_observation_date</t>
+  </si>
+  <si>
+    <t>Fraction Proportion of Total Layer Carbon</t>
+  </si>
+  <si>
+    <t>f_c_org</t>
+  </si>
+  <si>
+    <t>f_c_inorg</t>
+  </si>
+  <si>
+    <t>Fraction Inorganic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_fe_ox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_al_ox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_si_ox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_c_ox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_ox_notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_fe_hy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_al_hy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_si_hy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_c_hy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_hy_notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_fe_dith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_al_dith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_si_dith </t>
+  </si>
+  <si>
+    <t>f_zeolite</t>
+  </si>
+  <si>
+    <t>Zeolite Abundance</t>
+  </si>
+  <si>
+    <t>numeric, min=, max=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1430,22 +1502,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF666666"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1457,7 +1530,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1477,14 +1550,231 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="225">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1494,6 +1784,109 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1503,6 +1896,109 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1832,50 +2328,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1883,10 +2368,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1894,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1905,7 +2393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1926,8 +2414,11 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1938,7 +2429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1946,40 +2437,54 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -1995,369 +2500,329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="34" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37">
+      <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="61">
+      <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="49">
+      <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="49">
+      <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="D10" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="61">
+      <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D11" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60">
+      <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E13" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="49">
+      <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D14" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75">
+      <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D15" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E17" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="37">
+      <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C18" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45">
+      <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E19" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="37">
+      <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="C20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>384</v>
+      <c r="D20" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -2373,237 +2838,271 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="49">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="37">
+      <c r="A8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85">
+      <c r="A9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25">
+      <c r="A10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="25">
+      <c r="A12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49">
+      <c r="A13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="73">
+      <c r="A15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45">
+      <c r="A16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>411</v>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2614,1021 +3113,1335 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="61">
+      <c r="A8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25">
+      <c r="A12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25">
+      <c r="A16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="49">
+      <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="49">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="49">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25">
+      <c r="A24" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D24" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25">
+      <c r="A25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="B25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="D25" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25">
+      <c r="A26" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25">
+      <c r="A27" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30">
+      <c r="A40" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B40" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="C40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30">
+      <c r="A41" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B41" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="B42" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="B43" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C43" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="D43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B44" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="B45" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="B46" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B47" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="C47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B48" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D48" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="B49" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C49" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="D49" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B50" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="C50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B51" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="C51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B53" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="D53" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B54" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="C54" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="B55" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C55" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="E55" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B56" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C56" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="B57" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="B58" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B59" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B60" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C40" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="C60" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E60" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B61" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E61" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="B62" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C62" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B63" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="C63" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30">
+      <c r="A64" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B64" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B65" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="C65" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B66" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="C66" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B67" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="C67" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B68" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30">
+      <c r="A69" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E48" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="B69" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B70" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="C70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B71" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="C71" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B72" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="C72" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B73" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="C73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30">
+      <c r="A74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B74" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="C74" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B75" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C75" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="B76" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C76" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="B77" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C77" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30">
+      <c r="A78" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C56" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="B78" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C78" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30">
+      <c r="A79" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C57" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="B79" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C79" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="E79" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30">
+      <c r="A80" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B80" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C59" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="C80" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30">
+      <c r="A81" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B81" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="C81" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30">
+      <c r="A82" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B82" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C61" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="C82" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30">
+      <c r="A83" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B83" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="C83" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30">
+      <c r="A84" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B84" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="C84" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30">
+      <c r="A85" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B85" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C64" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="C85" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30">
+      <c r="A86" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B86" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="C86" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30">
+      <c r="A87" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B87" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C66" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="C87" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30">
+      <c r="A88" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B88" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C67" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="C88" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30">
+      <c r="A89" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B89" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C68" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="C89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30">
+      <c r="A90" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B90" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C69" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="C90" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30">
+      <c r="A91" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B91" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="C91" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30">
+      <c r="A92" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B92" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>276</v>
-      </c>
-      <c r="B72" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>278</v>
-      </c>
-      <c r="B73" t="s">
-        <v>279</v>
-      </c>
-      <c r="C73" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>281</v>
-      </c>
-      <c r="B74" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>283</v>
-      </c>
-      <c r="B75" t="s">
-        <v>284</v>
-      </c>
-      <c r="C75" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>285</v>
-      </c>
-      <c r="B76" t="s">
-        <v>286</v>
-      </c>
-      <c r="C76" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>287</v>
-      </c>
-      <c r="B77" t="s">
-        <v>288</v>
-      </c>
-      <c r="C77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>289</v>
-      </c>
-      <c r="B78" t="s">
-        <v>290</v>
-      </c>
-      <c r="C78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>291</v>
-      </c>
-      <c r="B79" t="s">
-        <v>292</v>
-      </c>
-      <c r="C79" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>293</v>
-      </c>
-      <c r="B80" t="s">
-        <v>294</v>
-      </c>
-      <c r="C80" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>295</v>
-      </c>
-      <c r="B81" t="s">
-        <v>296</v>
-      </c>
-      <c r="C81" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>297</v>
-      </c>
-      <c r="B82" t="s">
-        <v>298</v>
-      </c>
-      <c r="C82" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>299</v>
-      </c>
-      <c r="B83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>301</v>
-      </c>
-      <c r="B84" t="s">
-        <v>302</v>
-      </c>
-      <c r="C84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>303</v>
-      </c>
-      <c r="B85" t="s">
-        <v>304</v>
-      </c>
-      <c r="C85" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>305</v>
-      </c>
-      <c r="B86" t="s">
-        <v>306</v>
-      </c>
-      <c r="C86" t="s">
-        <v>280</v>
+      <c r="C92" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30">
+      <c r="A93" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30">
+      <c r="A94" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3644,44 +4457,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="3" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3689,510 +4496,823 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>461</v>
+      </c>
+      <c r="B22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>318</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="B31" t="s">
         <v>320</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="B32" t="s">
         <v>322</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>323</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B33" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>325</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B34" t="s">
         <v>326</v>
       </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="D34" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>468</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>469</v>
+      </c>
+      <c r="B40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>470</v>
+      </c>
+      <c r="B41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>472</v>
+      </c>
+      <c r="B43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>473</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>474</v>
+      </c>
+      <c r="B45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>475</v>
+      </c>
+      <c r="B46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30">
+      <c r="A48" t="s">
         <v>327</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30">
+      <c r="A49" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="B49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" t="s">
+        <v>249</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" t="s">
         <v>329</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" t="s">
         <v>330</v>
       </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="B51" t="s">
         <v>331</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30">
+      <c r="A52" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" t="s">
         <v>333</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54" t="s">
         <v>334</v>
       </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30">
+      <c r="A55" t="s">
         <v>335</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30">
+      <c r="A56" t="s">
         <v>336</v>
       </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B56" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" t="s">
         <v>337</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" t="s">
         <v>338</v>
       </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="B58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30">
+      <c r="A59" t="s">
         <v>339</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30">
+      <c r="A60" t="s">
         <v>340</v>
       </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="B60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30">
+      <c r="A61" t="s">
         <v>341</v>
       </c>
-      <c r="B21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" t="s">
-        <v>346</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" t="s">
-        <v>348</v>
-      </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>349</v>
-      </c>
-      <c r="B25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>350</v>
-      </c>
-      <c r="B26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>351</v>
-      </c>
-      <c r="B27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>352</v>
-      </c>
-      <c r="B28" t="s">
-        <v>353</v>
-      </c>
-      <c r="C28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>354</v>
-      </c>
-      <c r="B29" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>356</v>
-      </c>
-      <c r="B30" t="s">
-        <v>357</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>358</v>
-      </c>
-      <c r="B31" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>360</v>
-      </c>
-      <c r="B32" t="s">
-        <v>279</v>
-      </c>
-      <c r="C32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>361</v>
-      </c>
-      <c r="B33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>362</v>
-      </c>
-      <c r="B34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>363</v>
-      </c>
-      <c r="B35" t="s">
-        <v>364</v>
-      </c>
-      <c r="C35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>365</v>
-      </c>
-      <c r="B36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>367</v>
-      </c>
-      <c r="B38" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>369</v>
-      </c>
-      <c r="B40" t="s">
-        <v>296</v>
-      </c>
-      <c r="C40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>370</v>
-      </c>
-      <c r="B41" t="s">
-        <v>298</v>
-      </c>
-      <c r="C41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>371</v>
-      </c>
-      <c r="B42" t="s">
-        <v>300</v>
-      </c>
-      <c r="C42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>372</v>
-      </c>
-      <c r="B43" t="s">
-        <v>302</v>
-      </c>
-      <c r="C43" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>373</v>
-      </c>
-      <c r="B44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C44" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>374</v>
-      </c>
-      <c r="B45" t="s">
-        <v>306</v>
-      </c>
-      <c r="C45" t="s">
-        <v>280</v>
+      <c r="B61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30">
+      <c r="A62" t="s">
+        <v>477</v>
+      </c>
+      <c r="B62" t="s">
+        <v>478</v>
+      </c>
+      <c r="C62" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Template_info.xlsx
+++ b/inst/extdata/Template_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="482">
   <si>
     <t>dataset_name</t>
   </si>
@@ -1467,6 +1467,9 @@
   </si>
   <si>
     <t>Upper Cutoff Numerical</t>
+  </si>
+  <si>
+    <t>The shape of the slope</t>
   </si>
 </sst>
 </file>
@@ -2331,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2503,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2705,7 +2708,9 @@
       <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>350</v>
       </c>
